--- a/uploads/Final_Output.xlsx
+++ b/uploads/Final_Output.xlsx
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>1500001</v>
